--- a/lookup/meter_model.xlsx
+++ b/lookup/meter_model.xlsx
@@ -532,14 +532,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -865,68 +865,68 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
